--- a/Result/14-09-24/NASDAQstock_14-09-24period252RS90.xlsx
+++ b/Result/14-09-24/NASDAQstock_14-09-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/14-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5FB34A-0789-D945-8C13-DE6243793A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F1D4B-B68F-004D-87BF-EF1552122CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1932,115 +1932,116 @@
       </c>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>88</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>94.05556417817786</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>674</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>255.46</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.9</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>250.99400024414061</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>246.45600051879879</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>228.7008010864258</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>201.2347004699707</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>1.02</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <v>8</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="S7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="S7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
         <v>134.34</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="3">
         <v>256.75</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="3">
         <v>149.65</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="3">
         <v>8.09</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="3">
         <v>109.48</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="3">
         <v>335.48</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="3">
         <v>34.450000000000003</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="3">
         <v>-36.96</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="3">
         <v>16.52</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="3">
         <v>78.42</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="3">
         <v>11.67</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="3">
         <v>12.86</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="3">
         <v>43.686768860605113</v>
       </c>
     </row>
@@ -3396,115 +3397,116 @@
       </c>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>98.51001086450411</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>1782</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>185.92</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>3.35</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>180.44199829101561</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>167.24550018310549</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>162.4534002685547</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>131.72080013275149</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>1.08</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
         <v>1.666666666666667</v>
       </c>
-      <c r="S20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="S20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>48.39</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="3">
         <v>190.09</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="3">
         <v>5.23</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="3">
         <v>0.37</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="3">
         <v>172.54</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="3">
         <v>212.12</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="3">
         <v>16.079999999999998</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="3">
         <v>-70.489999999999995</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="3">
         <v>317.86</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="3">
         <v>5.08</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AF20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AH20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="3">
         <v>0.3</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="3">
         <v>2.6</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="3">
         <v>766.67</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="3">
         <v>32.659667843050379</v>
       </c>
     </row>
@@ -3735,115 +3737,116 @@
       </c>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>98.137513580630142</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>246</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>112.58</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>4.28</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>97.66000061035156</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>90.928750228881839</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>83.962100219726565</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>67.365849952697758</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>1.07</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" t="b">
-        <v>1</v>
-      </c>
-      <c r="U23" t="b">
-        <v>0</v>
-      </c>
-      <c r="V23">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>34.450000000000003</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="3">
         <v>112.88</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="3">
         <v>37.630000000000003</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="3">
         <v>46.35</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="3">
         <v>244.06</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="3">
         <v>307.60000000000002</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="3">
         <v>70.66</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="3">
         <v>31.43</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="3">
         <v>45.83</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="3">
         <v>50</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AF23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AG23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AH23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" s="3">
         <v>2.34</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" s="3">
         <v>4.3600000000000003</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" s="3">
         <v>86.32</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" s="3">
         <v>31.001369386722271</v>
       </c>
     </row>
